--- a/docs/data/sckjc_winter2025.xlsx
+++ b/docs/data/sckjc_winter2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{0DA584F2-57B2-4301-95BC-F18D63F3D8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60B4E9BB-1CFD-444B-BCE8-0E3729ACA1C5}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{0DA584F2-57B2-4301-95BC-F18D63F3D8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ACB33F7-919D-449A-90AC-595E530B3E80}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D187901-E6A1-4676-A790-E8B1B18E73F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Science 2024</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1q9bzkaW0fP9igRoDbDowOCcKHGUa9X55?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +587,12 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
